--- a/biology/Microbiologie/Dictyostélides/Dictyostélides.xlsx
+++ b/biology/Microbiologie/Dictyostélides/Dictyostélides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dictyost%C3%A9lides</t>
+          <t>Dictyostélides</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dictyostelia, Dictyosteliomycetes
 Les dictyostélides (CINZ : Dictyostelia ; CIN : Dictyosteliomycetes) sont un clade de protistes amibozoaires de la classe des Eumycetozoa. Ils appartiennent au groupe des myxomycètes au sens large, car ils forment un pseudoplasmode et des fructifications sporifères. Ces organismes ont parfois été classés parmi les champignons et sont souvent étudiés par les mycologues.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dictyost%C3%A9lides</t>
+          <t>Dictyostélides</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>La taxinomie interne des dictyostélides a été entièrement revue en 2018[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>La taxinomie interne des dictyostélides a été entièrement revue en 2018 :
 ordre Acytosteliales
 famille Acytosteliaceae
 genre Acytostelium
